--- a/SFE - InternalEnergy/LUKE_T50_P200_org.xlsx
+++ b/SFE - InternalEnergy/LUKE_T50_P200_org.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LocalUserData\User-data\sliczno1\GitHub\Parameter_fitting_casadi\SFE - InternalEnergy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3837C94B-FB44-4CDE-B25E-EC7552436969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613031E5-648D-4D34-9C57-35290D1CBF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{256936A8-8396-481A-AD3B-80F1FE95600A}"/>
+    <workbookView xWindow="3615" yWindow="2640" windowWidth="34485" windowHeight="21585" xr2:uid="{256936A8-8396-481A-AD3B-80F1FE95600A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="C2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
